--- a/Reportes_compatibilidad/Resumen reporte.xlsx
+++ b/Reportes_compatibilidad/Resumen reporte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="27">
   <si>
     <t>Sin plantillas</t>
   </si>
@@ -178,10 +178,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,7 +499,7 @@
   <dimension ref="A2:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -508,33 +508,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -585,11 +585,21 @@
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
@@ -625,11 +635,21 @@
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
@@ -665,11 +685,21 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
@@ -685,7 +715,7 @@
       <c r="K6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -705,11 +735,21 @@
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
@@ -745,11 +785,21 @@
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
@@ -785,11 +835,21 @@
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
@@ -825,11 +885,21 @@
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>25</v>
       </c>
@@ -865,11 +935,21 @@
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>25</v>
       </c>
@@ -905,11 +985,21 @@
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="2" t="s">
         <v>25</v>
       </c>
@@ -945,11 +1035,21 @@
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G13" s="2" t="s">
         <v>25</v>
       </c>
@@ -985,11 +1085,21 @@
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1025,11 +1135,21 @@
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1065,11 +1185,21 @@
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1105,11 +1235,21 @@
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1145,11 +1285,21 @@
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G18" s="2" t="s">
         <v>25</v>
       </c>
